--- a/17.xlsx
+++ b/17.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\visua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kab-35-16\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61476DC-9A24-48F7-8125-6D0A010EA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="2" r:id="rId1"/>
@@ -30,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="12">Декабрь!$B$2:$I$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,13 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
-  <si>
-    <t>Это первая строка</t>
-  </si>
-  <si>
-    <t>это вторая строка</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>Месяц</t>
   </si>
@@ -69,9 +62,6 @@
     <t>Март</t>
   </si>
   <si>
-    <t>алгебра</t>
-  </si>
-  <si>
     <t>История</t>
   </si>
   <si>
@@ -108,9 +98,6 @@
     <t>Класс</t>
   </si>
   <si>
-    <t>понедельник</t>
-  </si>
-  <si>
     <t>Понедельник</t>
   </si>
   <si>
@@ -307,12 +294,19 @@
   </si>
   <si>
     <t>Всего за неделю</t>
+  </si>
+  <si>
+    <t>это первая строка 
+это вторая строка</t>
+  </si>
+  <si>
+    <t>Ин. яз.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0,&quot;р.&quot;"/>
   </numFmts>
@@ -418,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -435,11 +429,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,14 +486,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
@@ -495,25 +509,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -834,26 +848,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
+    <row r="2" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -872,39 +884,39 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
@@ -926,74 +938,74 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="32">
+        <v>66</v>
+      </c>
+      <c r="C20" s="28">
         <v>149600000</v>
       </c>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>384000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="12">
         <v>0.9972685185185185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>365.25599999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1007,68 +1019,68 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1078,9 +1090,9 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1090,9 +1102,9 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1102,9 +1114,9 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1114,18 +1126,18 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="25"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="29"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="26"/>
+      <c r="G7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="30"/>
       <c r="I7" s="14"/>
     </row>
   </sheetData>
@@ -1139,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1149,24 +1161,24 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1179,60 +1191,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>12</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1244,120 +1256,120 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1370,141 +1382,158 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="C2:D9"/>
+  <dimension ref="C2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
+    <row r="2" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="32"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="32"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="32"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="32"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="32"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="32"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="32"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="32"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="32"/>
+      <c r="D13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="28">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="35">
         <v>250</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="36">
         <f>PRODUCT(B2,1024)</f>
         <v>256000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="28">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="35">
         <v>0.7</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="36">
         <f>PRODUCT(B3,1024)</f>
         <v>716.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="35">
         <v>4.7</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="36">
         <f>PRODUCT(B4,1024)</f>
         <v>4812.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="28">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="35">
         <v>16</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="36">
         <f>PRODUCT(B5,1024)</f>
         <v>16384</v>
       </c>
@@ -1515,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -1525,246 +1554,246 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="30">
         <v>24</v>
       </c>
-      <c r="C3" s="30">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="20">
+        <v>24</v>
+      </c>
+      <c r="C3" s="20">
         <v>8</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="20">
         <v>22</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="21">
         <f>PRODUCT(B3:C3:D3)</f>
         <v>4224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="30">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="20">
         <v>16</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="20">
         <v>7</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="20">
         <v>18</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="21">
         <f>PRODUCT(B4:C4:D4)</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="30">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="20">
         <v>36</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="20">
         <v>8</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="20">
         <v>20</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="21">
         <f t="shared" ref="E5:E13" si="0">PRODUCT(B5:D5)</f>
         <v>5760</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="30">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="20">
         <v>20</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="20">
         <v>6</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="20">
         <v>19</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>2280</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="30">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="20">
         <v>19</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="20">
         <v>7</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="20">
         <v>21</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>2793</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="30">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="20">
         <v>34</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="20">
         <v>6</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="20">
         <v>22</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>4488</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="30">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="20">
         <v>30</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="20">
         <v>7</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="20">
         <v>20</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="30">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="20">
         <v>25</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="20">
         <v>19</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="30">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="20">
         <v>31</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="20">
         <v>8</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="20">
         <v>22</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>5456</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="30">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="20">
         <v>33</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="20">
         <v>7</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="20">
         <v>21</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>4851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="30">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="20">
         <v>15</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="20">
         <v>6</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="20">
         <v>19</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>1710</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1">
         <f>SUM(E3:E13)</f>
         <v>41578</v>
@@ -1780,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1790,36 +1819,36 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
       </c>
       <c r="B3">
         <v>178684</v>
@@ -1828,9 +1857,9 @@
         <v>11022</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>91655</v>
@@ -1839,9 +1868,9 @@
         <v>8742</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>76174</v>
@@ -1850,9 +1879,9 @@
         <v>7729</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>14756</v>
@@ -1871,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1881,40 +1910,40 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
@@ -1932,12 +1961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="7">
         <v>4</v>
@@ -1955,12 +1984,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -1978,12 +2007,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -2001,12 +2030,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8">
         <v>3</v>
@@ -2024,12 +2053,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -2047,10 +2076,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15" s="2"/>
     </row>
   </sheetData>

--- a/17.xlsx
+++ b/17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Декабрь" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">Декабрь!$B$2:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">Декабрь!$A$2:$H$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -310,18 +310,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0,&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -338,48 +330,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -411,22 +381,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,90 +417,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -864,7 +878,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -881,41 +895,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="28">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -932,86 +946,88 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A18:D24"/>
+  <dimension ref="A16:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="34">
+        <v>149600000</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="10">
+        <v>384000</v>
+      </c>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="14">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.9972685185185185</v>
+      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="28">
-        <v>149600000</v>
-      </c>
-      <c r="D20" s="28"/>
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="10">
+        <v>365.25599999999997</v>
+      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21">
-        <v>384000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0.9972685185185185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23">
-        <v>365.25599999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A21" s="14">
         <v>5</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B21" s="30" t="s">
         <v>70</v>
       </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C20:D20"/>
+  <mergeCells count="1">
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1037,114 +1053,111 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:I7"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="29" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1164,11 +1177,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1204,7 +1217,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -1212,37 +1225,37 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -1269,11 +1282,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -1287,7 +1300,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -1301,7 +1314,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1326,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1338,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1350,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1362,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1374,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -1400,56 +1413,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="32"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="32"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="32"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="32"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="32"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="32"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="32"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="32"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="32"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1468,7 +1481,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1480,60 +1493,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="12">
         <v>250</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="13">
         <f>PRODUCT(B2,1024)</f>
         <v>256000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="12">
         <v>0.7</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="13">
         <f>PRODUCT(B3,1024)</f>
         <v>716.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="12">
         <v>4.7</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="13">
         <f>PRODUCT(B4,1024)</f>
         <v>4812.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="12">
         <v>16</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="13">
         <f>PRODUCT(B5,1024)</f>
         <v>16384</v>
       </c>
@@ -1551,7 +1564,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,237 +1577,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="15">
         <v>24</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>22</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="16">
         <f>PRODUCT(B3:C3:D3)</f>
         <v>4224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="15">
         <v>16</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>7</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>18</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <f>PRODUCT(B4:C4:D4)</f>
         <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="15">
         <v>36</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>20</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <f t="shared" ref="E5:E13" si="0">PRODUCT(B5:D5)</f>
         <v>5760</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="15">
         <v>20</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>6</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>19</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>2280</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="15">
         <v>19</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>7</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>21</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>2793</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="15">
         <v>34</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>6</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>22</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>4488</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="15">
         <v>30</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>7</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>20</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="15">
         <v>25</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>8</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>19</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="15">
         <v>31</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>8</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>22</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>5456</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="15">
         <v>33</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>7</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>21</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>4851</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="15">
         <v>15</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>6</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>19</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>1710</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18">
         <f>SUM(E3:E13)</f>
         <v>41578</v>
       </c>
@@ -1816,24 +1829,24 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1907,172 +1920,173 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="23">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="23">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="23">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="23">
         <v>4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="23">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="23">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="23">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="23">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="23">
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="23">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="23">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="23">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="23">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="23">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="23">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="23">
         <v>5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="23">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="23">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="23">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="23">
         <v>5</v>
       </c>
     </row>
